--- a/cs_test_scrape.xlsx
+++ b/cs_test_scrape.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu.sharepoint.com/sites/ScholarshipsOperationsGroup/Shared Documents/Git/Scholarships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9F91B0E97CB5EDCF41A63B8069A95D0569ED5AD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C44557-0FAF-4A3D-9365-549166E1208B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9F91B0E97CB5EDCF41A63B8069A95D0569ED5AD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0829C7-2B1D-49D6-AE24-CE21D726EF46}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Placement</t>
   </si>
   <si>
-    <t>UOW</t>
-  </si>
-  <si>
     <t>CSU Foundation Rural Relief Scholarship</t>
   </si>
   <si>
@@ -2088,6 +2085,9 @@
 • final year
 • Financial hardship
 • Academic merit</t>
+  </si>
+  <si>
+    <t>Charles Sturt</t>
   </si>
 </sst>
 </file>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I190" sqref="A2:I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,5609 +2498,5609 @@
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B2" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/csu-foundation-rural-relief-scholarship", "CSU Foundation Rural Relief Scholarship")</f>
         <v>CSU Foundation Rural Relief Scholarship</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/ppeg", "Professional Placement Equity Grant")</f>
         <v>Professional Placement Equity Grant</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B4" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/eeg", "Student Emergency Equity Grant")</f>
         <v>Student Emergency Equity Grant</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B5" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/npilf-career-ready-grant", "NPILF Career Ready Grant")</f>
         <v>NPILF Career Ready Grant</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B6" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/charles-sturt-global/vice-chancellor-travel-grants-short-term", "Vice-Chancellor Travel Grants (Short term)")</f>
         <v>Vice-Chancellor Travel Grants (Short term)</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B7" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/national-mental-health-pathways-to-practice-scholarship-recovery-camp-placements", "National Mental Health Pathways to Practice Scholarship - Recovery Camp placements")</f>
         <v>National Mental Health Pathways to Practice Scholarship - Recovery Camp placements</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B8" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/equity-and-inclusion-grant", "Equity and Inclusion Grant")</f>
         <v>Equity and Inclusion Grant</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B9" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/bathurst-teachers-college-alumni-scholarship", "Bathurst Teachers’ College Alumni Scholarship")</f>
         <v>Bathurst Teachers’ College Alumni Scholarship</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B10" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/glenray-commitment-scholarship", "Glenray Commitment Scholarship")</f>
         <v>Glenray Commitment Scholarship</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B11" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/jenny-miller-legacy-scholarship", "Jenny Miller Legacy Scholarship")</f>
         <v>Jenny Miller Legacy Scholarship</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B12" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/csu-give-scholarship", "Staffgive Scholarship")</f>
         <v>Staffgive Scholarship</v>
       </c>
       <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B13" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/vivability-limited-empowered-futures-scholarship", "Vivability Limited Empowered Futures Scholarship")</f>
         <v>Vivability Limited Empowered Futures Scholarship</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B14" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/alburywodonga-src-student-support-scholarship", "Albury/Wodonga SRC Student Support Scholarship")</f>
         <v>Albury/Wodonga SRC Student Support Scholarship</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B15" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/charles-sturt-kickstart-scholarship", "Charles Sturt Kickstart Scholarship")</f>
         <v>Charles Sturt Kickstart Scholarship</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B16" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/rseg", "Intensive School Equity Grant")</f>
         <v>Intensive School Equity Grant</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B17" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/country-womens-association-of-nsw-scholarship", "Riverina Group Country Women’s Association of NSW Scholarship")</f>
         <v>Riverina Group Country Women’s Association of NSW Scholarship</v>
       </c>
       <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B18" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/csu-persistence-scholarship", "CSU Foundation Persistence Scholarship")</f>
         <v>CSU Foundation Persistence Scholarship</v>
       </c>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B19" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/charles-sturt-student-success-scholarship", "Charles Sturt Student Success Scholarship")</f>
         <v>Charles Sturt Student Success Scholarship</v>
       </c>
       <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B20" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/veolia-mulwaree-scholarship", "Veolia Mulwaree Trust Scholarship")</f>
         <v>Veolia Mulwaree Trust Scholarship</v>
       </c>
       <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B21" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/gulbali-honours-research-support-scheme-eoi", "Gulbali Honours Research Support Scheme EOI")</f>
         <v>Gulbali Honours Research Support Scheme EOI</v>
       </c>
       <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B22" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/murrumbidgee-council-scholarship", "Murrumbidgee Council Scholarship")</f>
         <v>Murrumbidgee Council Scholarship</v>
       </c>
       <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B23" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/moya-crowe-memorial-scholarship", "Moya Crowe Memorial Scholarship")</f>
         <v>Moya Crowe Memorial Scholarship</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B24" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/tasdemir-family-scholarship", "Tasdemir Family Scholarship")</f>
         <v>Tasdemir Family Scholarship</v>
       </c>
       <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B25" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/tony-mcgrane-scholarship", "Tony McGrane Memorial Scholarship")</f>
         <v>Tony McGrane Memorial Scholarship</v>
       </c>
       <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B26" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/kempsey-shire-council-scholarship", "Kempsey Shire Council Scholarship")</f>
         <v>Kempsey Shire Council Scholarship</v>
       </c>
       <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B27" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/csu-foundation-assistance-scholarship", "CSU Foundation Assistance Scholarship")</f>
         <v>CSU Foundation Assistance Scholarship</v>
       </c>
       <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B28" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/mitchell-emeritus-club", "Mitchell Emeritus Club")</f>
         <v>Mitchell Emeritus Club</v>
       </c>
       <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B29" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/reformer-new-start-scholarship", "Reformer New Start Scholarship")</f>
         <v>Reformer New Start Scholarship</v>
       </c>
       <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B30" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/mal-walker-memorial-scholarship", "Dr Malcolm Walker Memorial Scholarship")</f>
         <v>Dr Malcolm Walker Memorial Scholarship</v>
       </c>
       <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B31" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/dr-bal-krishan-scholarship", "Dr Bal Krishan Scholarship")</f>
         <v>Dr Bal Krishan Scholarship</v>
       </c>
       <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B32" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/the-walter-and-eliza-hall-trust-opportunity-disability-scholarship", "Walter and Eliza Hall Trust Opportunity Disability Scholarship")</f>
         <v>Walter and Eliza Hall Trust Opportunity Disability Scholarship</v>
       </c>
       <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B33" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/carathool-shire-council", "Carrathool Shire Council Scholarship")</f>
         <v>Carrathool Shire Council Scholarship</v>
       </c>
       <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B34" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/src-wagga-student-support-scholarship", "SRC Wagga Student Support Scholarship")</f>
         <v>SRC Wagga Student Support Scholarship</v>
       </c>
       <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B35" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/dubbo-rsl-sub-branch-and-dubbo-rsl-memorial-club-scholarship", "Dubbo RSL Sub Branch Scholarship")</f>
         <v>Dubbo RSL Sub Branch Scholarship</v>
       </c>
       <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B36" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/hastings-co-op-scholarship", "Hastings Co-op Scholarship")</f>
         <v>Hastings Co-op Scholarship</v>
       </c>
       <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
         <v>98</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B37" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/albury-city-scholarship", "AlburyCity Foundation Scholarship")</f>
         <v>AlburyCity Foundation Scholarship</v>
       </c>
       <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B38" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/len-madigan-memorial-scholarship", "Len Madigan Memorial Scholarship")</f>
         <v>Len Madigan Memorial Scholarship</v>
       </c>
       <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B39" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/the-resident-leadership-accommodation-scholarship", "Resident Leadership Accommodation Scholarship ")</f>
         <v xml:space="preserve">Resident Leadership Accommodation Scholarship </v>
       </c>
       <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
         <v>105</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B40" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/st-martins-heads-of-college-scholarship", "St Martin's Heads of College Scholarship")</f>
         <v>St Martin's Heads of College Scholarship</v>
       </c>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
         <v>109</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B41" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/thomas-a.-scahill-scholarship", "Thomas A. Scahill Scholarship")</f>
         <v>Thomas A. Scahill Scholarship</v>
       </c>
       <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B42" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/rotary-club-of-port-macquarie-sunrise-scholarship", "Rotary Club of Port Macquarie Sunrise Scholarship")</f>
         <v>Rotary Club of Port Macquarie Sunrise Scholarship</v>
       </c>
       <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B43" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/ron-wild,-rotary-club-of-tallangatta-scholarship", "Ron Wild, Rotary Club of Tallangatta Scholarship")</f>
         <v>Ron Wild, Rotary Club of Tallangatta Scholarship</v>
       </c>
       <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B44" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/csugive-geoff-honey-memorial-scholarship", "Staffgive Geoff Honey Memorial Scholarship")</f>
         <v>Staffgive Geoff Honey Memorial Scholarship</v>
       </c>
       <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B45" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/online-study-student-representative-committee-post-graduate-scholarship", "Online Student Representative Committee Post-Graduate Scholarship")</f>
         <v>Online Student Representative Committee Post-Graduate Scholarship</v>
       </c>
       <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
         <v>120</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B46" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/charles-sturt-foundation-sports-council-scholarship", "SRC Sports Scholarship")</f>
         <v>SRC Sports Scholarship</v>
       </c>
       <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B47" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/csu-bushpigs-football-club-accommodation-scholarship", "CSU Bushpigs Football Club Accommodation Scholarship")</f>
         <v>CSU Bushpigs Football Club Accommodation Scholarship</v>
       </c>
       <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
         <v>125</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B48" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/the-wagga-rsl-club-scholarship", "The Wagga RSL Club Scholarship")</f>
         <v>The Wagga RSL Club Scholarship</v>
       </c>
       <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B49" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/csu-rugby-alumni-scholarship", "CSU Rugby Alumni Scholarship")</f>
         <v>CSU Rugby Alumni Scholarship</v>
       </c>
       <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B50" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/destination-australia-scholarship", "Destination Australia Scholarship")</f>
         <v>Destination Australia Scholarship</v>
       </c>
       <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
         <v>132</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>133</v>
       </c>
-      <c r="E50" t="s">
-        <v>134</v>
-      </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B51" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/the-blair-milan-memorial-scholarship", "Blair Milan Memorial Scholarship")</f>
         <v>Blair Milan Memorial Scholarship</v>
       </c>
       <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B52" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/CSU-Australian-Football-and-Netball-Club-Scholarships", "CSU Australian Football and Netball Club Prize")</f>
         <v>CSU Australian Football and Netball Club Prize</v>
       </c>
       <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
         <v>137</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B53" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/charles-sturt-global/vice-chancellor-travel-grants-exchange", "Vice-Chancellor Travel Grants (Exchange)")</f>
         <v>Vice-Chancellor Travel Grants (Exchange)</v>
       </c>
       <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
         <v>140</v>
       </c>
-      <c r="D53" t="s">
-        <v>141</v>
-      </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B54" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/staffgive-research-scholarship", "Staffgive Research Scholarship")</f>
         <v>Staffgive Research Scholarship</v>
       </c>
       <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B55" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/the-toni-downes-new-horizons-travel-prize", "The Toni Downes New Horizons Travel Prize")</f>
         <v>The Toni Downes New Horizons Travel Prize</v>
       </c>
       <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" t="s">
         <v>144</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B56" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/online-study-student-representative-committee-scholarship", "Online Study Student Representative Committee Undergraduate Scholarship")</f>
         <v>Online Study Student Representative Committee Undergraduate Scholarship</v>
       </c>
       <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
         <v>147</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B57" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/staffgive-work-placement-prize", "Staffgive Work Placement Prize")</f>
         <v>Staffgive Work Placement Prize</v>
       </c>
       <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B58" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/lila-kirilik-human-servicessocial-work-scholarship", "Lila Kirilik Human Services/Social Work Scholarship")</f>
         <v>Lila Kirilik Human Services/Social Work Scholarship</v>
       </c>
       <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
         <v>152</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B59" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/st-martins-college-helen-and-james-faulks-scholarship", "St Martins College Helen and James Faulks Scholarship")</f>
         <v>St Martins College Helen and James Faulks Scholarship</v>
       </c>
       <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B60" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/mr-gerry-and-mrs-helen-baber-scholarship", "Mr Gerry Baber &amp; Mrs Helen Baber OAM Scholarship")</f>
         <v>Mr Gerry Baber &amp; Mrs Helen Baber OAM Scholarship</v>
       </c>
       <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B61" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/lions-club-of-albury-inc.-scholarship", "Lions Club of Albury Inc. Scholarship")</f>
         <v>Lions Club of Albury Inc. Scholarship</v>
       </c>
       <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
         <v>159</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B62" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/st-martins-college-financial-assistance-accommodation-scholarship", "St Martins College Academic Scholarship")</f>
         <v>St Martins College Academic Scholarship</v>
       </c>
       <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B63" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/charles-sturt-campus-services-financial-assistance-scholarships", "Charles Sturt Campus Services Financial Assistance Scholarships")</f>
         <v>Charles Sturt Campus Services Financial Assistance Scholarships</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B64" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/mark-lockyear-library-and-information-scholarship", "Mark Lockyear Library and Information Scholarship")</f>
         <v>Mark Lockyear Library and Information Scholarship</v>
       </c>
       <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B65" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/ron-camplin-scholarship", "Dr Ron Camplin Scholarship OAM")</f>
         <v>Dr Ron Camplin Scholarship OAM</v>
       </c>
       <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
         <v>167</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B66" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/bathurst-mitchell-student-representative-committee-scholarship", "Bathurst (Mitchell) Student Representative Committee Scholarship")</f>
         <v>Bathurst (Mitchell) Student Representative Committee Scholarship</v>
       </c>
       <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B67" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/bowcher-family-scholarship", "Bowcher Family Scholarship")</f>
         <v>Bowcher Family Scholarship</v>
       </c>
       <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
         <v>172</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B68" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/csu-give-work-placement-scholarship", "Staffgive Work Placement Scholarship")</f>
         <v>Staffgive Work Placement Scholarship</v>
       </c>
       <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B69" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/lions-club-port-macquarie-tacking-point", "Lions Club of Port Macquarie Tacking Point Scholarship")</f>
         <v>Lions Club of Port Macquarie Tacking Point Scholarship</v>
       </c>
       <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D69" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B70" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/wagga-wagga-city-council-scholarship", "Wagga Wagga City Council Scholarship")</f>
         <v>Wagga Wagga City Council Scholarship</v>
       </c>
       <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B71" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/daily-advertiser-scholarship", "Daily Advertiser Scholarship")</f>
         <v>Daily Advertiser Scholarship</v>
       </c>
       <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
         <v>181</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B72" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/dubbo-regional-council-scholarship", "Dubbo Regional Council Scholarship")</f>
         <v>Dubbo Regional Council Scholarship</v>
       </c>
       <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B73" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/dr-doug-stace-scholarship", "Dr Doug Stace Scholarship")</f>
         <v>Dr Doug Stace Scholarship</v>
       </c>
       <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B74" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/the-carole-and-stan-droder-prize", "The Carole and Stan Droder Prize")</f>
         <v>The Carole and Stan Droder Prize</v>
       </c>
       <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B75" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/bush-childrens-education-foundation-bcef-scholarship2", "Bush Children's Education Foundation (BCEF) Scholarship ")</f>
         <v xml:space="preserve">Bush Children's Education Foundation (BCEF) Scholarship </v>
       </c>
       <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B76" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/bathurst-regional-council-scholarship", "Bathurst Regional Council Scholarship")</f>
         <v>Bathurst Regional Council Scholarship</v>
       </c>
       <c r="C76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B77" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/beth-montgomery-heath-social-work-scholarship", "Beth Montgomery Heath - Social Work Scholarship")</f>
         <v>Beth Montgomery Heath - Social Work Scholarship</v>
       </c>
       <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B78" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/delwyn-nicholls-scholarship", "Delwyn Nicholls Scholarship")</f>
         <v>Delwyn Nicholls Scholarship</v>
       </c>
       <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B79" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/the-wagga-wagga-rsl-scholarship", "The Wagga Wagga  RSL Sub-Branch Scholarship")</f>
         <v>The Wagga Wagga  RSL Sub-Branch Scholarship</v>
       </c>
       <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B80" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/dr-peter-hodgson-scholarship", "Dr Peter Hodgson Scholarship")</f>
         <v>Dr Peter Hodgson Scholarship</v>
       </c>
       <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B81" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/carole-and-stan-droder-scholarship", "Carole and Stan Droder Scholarship")</f>
         <v>Carole and Stan Droder Scholarship</v>
       </c>
       <c r="C81" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" t="s">
         <v>202</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B82" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/katie-burns-alumni-assistance-scholarship", "Katie Burns Alumni Assistance Scholarship")</f>
         <v>Katie Burns Alumni Assistance Scholarship</v>
       </c>
       <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D82" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B83" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/st-martins-college-richard-johnson-1st-year-scholarship", "St Martins College Richard Johnson 1st Year Scholarship")</f>
         <v>St Martins College Richard Johnson 1st Year Scholarship</v>
       </c>
       <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D83" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B84" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/laurel-trinidad-accommodation-scholarship-st-martins", "Laurel Trinidad Accommodation Scholarship (St Martin's)")</f>
         <v>Laurel Trinidad Accommodation Scholarship (St Martin's)</v>
       </c>
       <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D84" t="s">
-        <v>173</v>
-      </c>
-      <c r="E84" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B85" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/australian-library-and-information-association-scholarship", "Australian Library and Information Association Scholarship")</f>
         <v>Australian Library and Information Association Scholarship</v>
       </c>
       <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
         <v>211</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B86" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/charles-sturt-library-sage-apac-diversity,-equity-and-inclusion-scholarship", "Charles Sturt Library Sage APAC – Diversity, Equity and Inclusion Scholarship")</f>
         <v>Charles Sturt Library Sage APAC – Diversity, Equity and Inclusion Scholarship</v>
       </c>
       <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B87" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/aurecon-communication-scholarship", "Aurecon Communication Scholarship")</f>
         <v>Aurecon Communication Scholarship</v>
       </c>
       <c r="C87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" t="s">
         <v>216</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B88" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/yirigaa-cyber-and-software-pathway-scholarship", "Yirigaa Cyber and Software Pathway Scholarship")</f>
         <v>Yirigaa Cyber and Software Pathway Scholarship</v>
       </c>
       <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" t="s">
         <v>219</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E88" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B89" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/olding-business-scholarship", "Olding Business Scholarship")</f>
         <v>Olding Business Scholarship</v>
       </c>
       <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" t="s">
         <v>222</v>
       </c>
-      <c r="D89" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B90" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/wagga-wagga-teachers-alumni-scholarship", "Wagga Wagga Teachers College Alumni Association Scholarship")</f>
         <v>Wagga Wagga Teachers College Alumni Association Scholarship</v>
       </c>
       <c r="C90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" t="s">
         <v>225</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E90" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B91" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/charles-sturt-foundation2", "Dr John Reid Scholarship")</f>
         <v>Dr John Reid Scholarship</v>
       </c>
       <c r="C91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B92" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/charles-sturt-accounting-alumni-academic-prize", "Charles Sturt Accounting Alumni Academic Prize")</f>
         <v>Charles Sturt Accounting Alumni Academic Prize</v>
       </c>
       <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B93" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/the-hayes-scholarship", "The Hayes Scholarship")</f>
         <v>The Hayes Scholarship</v>
       </c>
       <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>50</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D93" t="s">
-        <v>51</v>
-      </c>
-      <c r="E93" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B94" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/lionel-allen-memorial-scholarship", "Lionel Allen Memorial Scholarship")</f>
         <v>Lionel Allen Memorial Scholarship</v>
       </c>
       <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D94" t="s">
-        <v>59</v>
-      </c>
-      <c r="E94" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B95" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/margaret-illuukol-trust-health-scholarship", "Margaret Illukol Trust Health Scholarship")</f>
         <v>Margaret Illukol Trust Health Scholarship</v>
       </c>
       <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" t="s">
         <v>236</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E95" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B96" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/transgrid-scholarship", "Transgrid Civil Engineering Scholarship")</f>
         <v>Transgrid Civil Engineering Scholarship</v>
       </c>
       <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
         <v>239</v>
       </c>
-      <c r="D96" t="s">
-        <v>240</v>
-      </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B97" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/inland-digital-scholarship", "Inland Digital Scholarship")</f>
         <v>Inland Digital Scholarship</v>
       </c>
       <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B98" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/westfund-healthy-futures-scholarship", "Westfund Healthy Futures Scholarship")</f>
         <v>Westfund Healthy Futures Scholarship</v>
       </c>
       <c r="C98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D98" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B99" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/dare-to-know-paramedic-research-scholarship", "Dare to Know Paramedic Research Scholarship")</f>
         <v>Dare to Know Paramedic Research Scholarship</v>
       </c>
       <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" t="s">
         <v>245</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E99" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B100" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rotary-club-of-liverpool-west-scholarship2", "Rotary Club of Liverpool West Scholarship")</f>
         <v>Rotary Club of Liverpool West Scholarship</v>
       </c>
       <c r="C100" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" t="s">
         <v>248</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E100" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B101" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/the-dominos-pizza-business-and-leadership-scholarship", "The Domino's Pizza Business &amp; Leadership scholarship")</f>
         <v>The Domino's Pizza Business &amp; Leadership scholarship</v>
       </c>
       <c r="C101" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D101" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B102" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/gordon-bullock-memorial-scholarship", "Gordon Bullock Memorial Scholarship")</f>
         <v>Gordon Bullock Memorial Scholarship</v>
       </c>
       <c r="C102" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B103" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/boston-private-wealth-scholarship", "Boston Private Wealth Scholarship")</f>
         <v>Boston Private Wealth Scholarship</v>
       </c>
       <c r="C103" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" t="s">
         <v>255</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E103" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="H103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B104" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/precision-paper-coatings-pty-ltd-scholarship", "Precision Paper Coatings Pty Ltd Scholarship")</f>
         <v>Precision Paper Coatings Pty Ltd Scholarship</v>
       </c>
       <c r="C104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D104" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E104" t="s">
-        <v>35</v>
-      </c>
-      <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B105" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/nsw-public-libraries-association-scholarship", "NSW Public Libraries Association Scholarship")</f>
         <v>NSW Public Libraries Association Scholarship</v>
       </c>
       <c r="C105" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D105" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B106" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/albury-city-council-community-leadership-and-resilience-scholarship", "AlburyCity Council Community Leadership Scholarship")</f>
         <v>AlburyCity Council Community Leadership Scholarship</v>
       </c>
       <c r="C106" t="s">
+        <v>260</v>
+      </c>
+      <c r="D106" t="s">
         <v>261</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E106" t="s">
-        <v>35</v>
-      </c>
-      <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B107" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rural-australia-foundation-scholarship", "Rural Australia Foundation Scholarship")</f>
         <v>Rural Australia Foundation Scholarship</v>
       </c>
       <c r="C107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D107" t="s">
-        <v>51</v>
-      </c>
-      <c r="E107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B108" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/therapy-alliance-group-allied-health-scholarship", "Therapy Alliance Group Allied Health Scholarship")</f>
         <v>Therapy Alliance Group Allied Health Scholarship</v>
       </c>
       <c r="C108" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D108" t="s">
-        <v>41</v>
-      </c>
-      <c r="E108" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B109" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/ann-gwynn-jones-memorial-scholarship", "Ann Gwynn-Jones Memorial Scholarship")</f>
         <v>Ann Gwynn-Jones Memorial Scholarship</v>
       </c>
       <c r="C109" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D109" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B110" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/the-marila-kozdra-allied-health-excellence-scholarship", "The Marila Kozdra Allied Health Excellence Scholarship")</f>
         <v>The Marila Kozdra Allied Health Excellence Scholarship</v>
       </c>
       <c r="C110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" t="s">
-        <v>35</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B111" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/dawn-rigby-memorial-scholarship", "Dawn Rigby Memorial Scholarship")</f>
         <v>Dawn Rigby Memorial Scholarship</v>
       </c>
       <c r="C111" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D111" t="s">
-        <v>182</v>
-      </c>
-      <c r="E111" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B112" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/riverina-water-county-council-scholarship", "Riverina Water Scholarship")</f>
         <v>Riverina Water Scholarship</v>
       </c>
       <c r="C112" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D112" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" t="s">
-        <v>35</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B113" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/white-family-scholarship", "White Family Scholarship")</f>
         <v>White Family Scholarship</v>
       </c>
       <c r="C113" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B114" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/mr-oliver-and-mrs-heather-fiala-am-scholarship", "Dr Oliver &amp; Mrs Heather Fiala AM Scholarship")</f>
         <v>Dr Oliver &amp; Mrs Heather Fiala AM Scholarship</v>
       </c>
       <c r="C114" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D114" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B115" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/lachlan,-parkes-and-forbes-lga-allied-health-continuing-student-scholarship-three-rivers", "Lachlan, Parkes and Forbes LGA  Allied Health Continuing Student Scholarship (Three Rivers)")</f>
         <v>Lachlan, Parkes and Forbes LGA  Allied Health Continuing Student Scholarship (Three Rivers)</v>
       </c>
       <c r="C115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" t="s">
         <v>280</v>
       </c>
-      <c r="D115" t="s">
-        <v>281</v>
-      </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B116" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/yindyamarra-scholarship", "Yindyamarra Scholarship")</f>
         <v>Yindyamarra Scholarship</v>
       </c>
       <c r="C116" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" t="s">
-        <v>35</v>
-      </c>
-      <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B117" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/three-rivers-drh-commencing-student-scholarship", "Three Rivers DRH Commencing Student Scholarship")</f>
         <v>Three Rivers DRH Commencing Student Scholarship</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B118" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/three-rivers-drh-aged-care-commencing-student-scholarship", "Three Rivers DRH Aged Care Commencing Student Scholarship")</f>
         <v>Three Rivers DRH Aged Care Commencing Student Scholarship</v>
       </c>
       <c r="C118" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" t="s">
         <v>285</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>286</v>
       </c>
-      <c r="E118" t="s">
-        <v>287</v>
-      </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B119" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/jacob-berry-memorial-scholarship", "Jacob Berry Memorial Scholarship")</f>
         <v>Jacob Berry Memorial Scholarship</v>
       </c>
       <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D119" t="s">
-        <v>160</v>
-      </c>
-      <c r="E119" t="s">
-        <v>35</v>
-      </c>
-      <c r="F119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B120" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/lachlan,-parkes-and-forbes-lga-allied-health-commencing-student-scholarship-three-rivers", "Lachlan, Parkes and Forbes LGA  Allied Health Commencing Student Scholarship (Three Rivers)")</f>
         <v>Lachlan, Parkes and Forbes LGA  Allied Health Commencing Student Scholarship (Three Rivers)</v>
       </c>
       <c r="C120" t="s">
+        <v>289</v>
+      </c>
+      <c r="D120" t="s">
         <v>290</v>
       </c>
-      <c r="D120" t="s">
-        <v>291</v>
-      </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B121" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/centacare-south-west-nsw-scholarship", "Centacare South West NSW Scholarship")</f>
         <v>Centacare South West NSW Scholarship</v>
       </c>
       <c r="C121" t="s">
+        <v>291</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B122" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/charles-sturt-university-foundation-community-health-scholarship", "Charles Sturt University Foundation Community Health Scholarship")</f>
         <v>Charles Sturt University Foundation Community Health Scholarship</v>
       </c>
       <c r="C122" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>65</v>
+      </c>
+      <c r="F122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" t="s">
-        <v>66</v>
-      </c>
-      <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B123" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/laurel-trinidad-research-grant", "Laurel-Trinidad Research Grant")</f>
         <v>Laurel-Trinidad Research Grant</v>
       </c>
       <c r="C123" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D123" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B124" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/women-in-racing-canberra-prize", "Women in Racing Canberra Prize")</f>
         <v>Women in Racing Canberra Prize</v>
       </c>
       <c r="C124" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" t="s">
+        <v>98</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D124" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B125" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/Sky-News-Australia-Ian-Cook-Memorial-Scholarship", "Sky News Australia - Ian Cook Memorial Scholarship")</f>
         <v>Sky News Australia - Ian Cook Memorial Scholarship</v>
       </c>
       <c r="C125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" t="s">
         <v>300</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>65</v>
+      </c>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E125" t="s">
-        <v>66</v>
-      </c>
-      <c r="F125" t="s">
-        <v>29</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B126" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rotary-club-of-yenda-dick-and-lavelle-wallace-memorial-scholarship", "Rotary Club of Yenda, Dick and Lavelle Wallace Memorial Scholarship")</f>
         <v>Rotary Club of Yenda, Dick and Lavelle Wallace Memorial Scholarship</v>
       </c>
       <c r="C126" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" t="s">
+        <v>65</v>
+      </c>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D126" t="s">
-        <v>173</v>
-      </c>
-      <c r="E126" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B127" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/jess-mclennan-memorial-prize", "Jess McLennan Memorial Prize")</f>
         <v>Jess McLennan Memorial Prize</v>
       </c>
       <c r="C127" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" t="s">
         <v>305</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E127" t="s">
-        <v>35</v>
-      </c>
-      <c r="F127" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B128" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/professor-john-carroll-memorial-scholarship", "Professor John Carroll Memorial Scholarship")</f>
         <v>Professor John Carroll Memorial Scholarship</v>
       </c>
       <c r="C128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D128" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" t="s">
+        <v>65</v>
+      </c>
+      <c r="F128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D128" t="s">
-        <v>153</v>
-      </c>
-      <c r="E128" t="s">
-        <v>66</v>
-      </c>
-      <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B129" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/gita-belin-fortitude-foundation-paramedicine-3rd-year", "Gita Belin Fortitude Foundation Paramedicine 3rd Year")</f>
         <v>Gita Belin Fortitude Foundation Paramedicine 3rd Year</v>
       </c>
       <c r="C129" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D129" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" t="s">
-        <v>45</v>
-      </c>
-      <c r="F129" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="H129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B130" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/peter-andren-memorial-scholarship", "Peter Andren Memorial Scholarship")</f>
         <v>Peter Andren Memorial Scholarship</v>
       </c>
       <c r="C130" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" t="s">
         <v>312</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E130" t="s">
-        <v>35</v>
-      </c>
-      <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="H130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B131" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/warakirri-cropping-scholarship2", "Warakirri Cropping Scholarship")</f>
         <v>Warakirri Cropping Scholarship</v>
       </c>
       <c r="C131" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D131" t="s">
-        <v>51</v>
-      </c>
-      <c r="E131" t="s">
-        <v>35</v>
-      </c>
-      <c r="F131" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="H131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B132" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/charles-sturt-foundation-paramedics-scholarship", "Charles Sturt Foundation Paramedics Scholarship")</f>
         <v>Charles Sturt Foundation Paramedics Scholarship</v>
       </c>
       <c r="C132" t="s">
+        <v>316</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="H132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B133" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/hv-mckay-scholarship", "HV McKay II Memorial Scholarship")</f>
         <v>HV McKay II Memorial Scholarship</v>
       </c>
       <c r="C133" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" t="s">
         <v>319</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E133" t="s">
-        <v>35</v>
-      </c>
-      <c r="F133" t="s">
-        <v>29</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="H133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B134" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/a-and-k-gestier-veterinary-scholarship2/gita-belin-fortitude-foundation-paramedicine-2nd-year", "Gita Belin Fortitude Foundation Paramedicine 2nd Year")</f>
         <v>Gita Belin Fortitude Foundation Paramedicine 2nd Year</v>
       </c>
       <c r="C134" t="s">
+        <v>321</v>
+      </c>
+      <c r="D134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D134" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134" t="s">
-        <v>45</v>
-      </c>
-      <c r="F134" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B135" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/nutrien-ag-solutions-harvesting-the-future-scholarship", "Nutrien Ag Solutions - Harvesting the Future Scholarship")</f>
         <v>Nutrien Ag Solutions - Harvesting the Future Scholarship</v>
       </c>
       <c r="C135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
+      <c r="E135" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D135" t="s">
-        <v>286</v>
-      </c>
-      <c r="E135" t="s">
-        <v>35</v>
-      </c>
-      <c r="F135" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="H135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B136" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/gita-belin-fortitude-foundation-paramedicine-1st-year", "Gita Belin Fortitude Foundation Paramedicine 1st Year")</f>
         <v>Gita Belin Fortitude Foundation Paramedicine 1st Year</v>
       </c>
       <c r="C136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" t="s">
         <v>326</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E136" t="s">
-        <v>45</v>
-      </c>
-      <c r="F136" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B137" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/bathurst-mitchell-student-representative-committee-scholarship/dawn-rigby-memorial-scholarship", "Dawn Rigby Memorial Scholarship")</f>
         <v>Dawn Rigby Memorial Scholarship</v>
       </c>
       <c r="C137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
         <v>11</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B138" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/wagga-wagga-teachers-alumni-scholarship/white-family-scholarship", "White Family Scholarship")</f>
         <v>White Family Scholarship</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
         <v>11</v>
       </c>
-      <c r="E138" t="s">
-        <v>12</v>
-      </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B139" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/gita-belin-fortitude-foundation-paramedicine-2nd-year", "Gita Belin Fortitude Foundation Paramedicine 2nd Year")</f>
         <v>Gita Belin Fortitude Foundation Paramedicine 2nd Year</v>
       </c>
       <c r="C139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B140" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/Agcessibility-kickstart-scholarship", "AGcessibility Kickstart Scholarship")</f>
         <v>AGcessibility Kickstart Scholarship</v>
       </c>
       <c r="C140" t="s">
+        <v>330</v>
+      </c>
+      <c r="D140" t="s">
         <v>331</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E140" t="s">
-        <v>35</v>
-      </c>
-      <c r="F140" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B141" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rotary-club-of-albury-scholarship", "Rotary Club of Albury Scholarship")</f>
         <v>Rotary Club of Albury Scholarship</v>
       </c>
       <c r="C141" t="s">
+        <v>333</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" t="s">
+        <v>65</v>
+      </c>
+      <c r="F141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E141" t="s">
-        <v>66</v>
-      </c>
-      <c r="F141" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B142" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/pay-it-forward-dentistry-scholarship", "Pay it Forward Dentistry Scholarship")</f>
         <v>Pay it Forward Dentistry Scholarship</v>
       </c>
       <c r="C142" t="s">
+        <v>335</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D142" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" t="s">
-        <v>35</v>
-      </c>
-      <c r="F142" t="s">
-        <v>29</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="H142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B143" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/zonta-jill-salter-memorial-women-in-rural-health-scholarship", "ZONTA - Jill Salter Memorial - Women in Rural Health Scholarship")</f>
         <v>ZONTA - Jill Salter Memorial - Women in Rural Health Scholarship</v>
       </c>
       <c r="C143" t="s">
+        <v>337</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>65</v>
+      </c>
+      <c r="F143" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D143" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" t="s">
-        <v>66</v>
-      </c>
-      <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="H143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B144" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/rabobank-tertiary-pathways-scholarship", "Rabobank Tertiary Pathways Scholarship")</f>
         <v>Rabobank Tertiary Pathways Scholarship</v>
       </c>
       <c r="C144" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" t="s">
+        <v>331</v>
+      </c>
+      <c r="E144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D144" t="s">
-        <v>332</v>
-      </c>
-      <c r="E144" t="s">
-        <v>35</v>
-      </c>
-      <c r="F144" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="H144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B145" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/dr-julia-howitt-legacy-scholarship", "Dr Julia Howitt Legacy Scholarship")</f>
         <v>Dr Julia Howitt Legacy Scholarship</v>
       </c>
       <c r="C145" t="s">
+        <v>341</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D145" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" t="s">
-        <v>66</v>
-      </c>
-      <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B146" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/angel-family-trust-scholarship", "The Angel Family Trust Scholarship")</f>
         <v>The Angel Family Trust Scholarship</v>
       </c>
       <c r="C146" t="s">
+        <v>343</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>28</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D146" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" t="s">
-        <v>29</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B147" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/cal-scholarship", "CAL Scholarship")</f>
         <v>CAL Scholarship</v>
       </c>
       <c r="C147" t="s">
+        <v>345</v>
+      </c>
+      <c r="D147" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D147" t="s">
-        <v>182</v>
-      </c>
-      <c r="E147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="H147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B148" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/meller-and-hume-research-scholarship", "Meller Hume Research Scholarship")</f>
         <v>Meller Hume Research Scholarship</v>
       </c>
       <c r="C148" t="s">
+        <v>347</v>
+      </c>
+      <c r="D148" t="s">
         <v>348</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E148" t="s">
-        <v>35</v>
-      </c>
-      <c r="F148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="H148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B149" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/hicks-family-agricultural-scholarship", "Hicks Family Agricultural Scholarship")</f>
         <v>Hicks Family Agricultural Scholarship</v>
       </c>
       <c r="C149" t="s">
+        <v>350</v>
+      </c>
+      <c r="D149" t="s">
         <v>351</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>44</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E149" t="s">
-        <v>45</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="H149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B150" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/the-kerin-physio-co-allied-health-scholarship", "The Kerin Health Allied Health Scholarship")</f>
         <v>The Kerin Health Allied Health Scholarship</v>
       </c>
       <c r="C150" t="s">
+        <v>353</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D150" t="s">
-        <v>41</v>
-      </c>
-      <c r="E150" t="s">
-        <v>35</v>
-      </c>
-      <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B151" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/valerie-cox-memorial-scholarship-commencing", "Valerie Cox Memorial Scholarship - Commencing")</f>
         <v>Valerie Cox Memorial Scholarship - Commencing</v>
       </c>
       <c r="C151" t="s">
+        <v>355</v>
+      </c>
+      <c r="D151" t="s">
+        <v>202</v>
+      </c>
+      <c r="E151" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D151" t="s">
-        <v>203</v>
-      </c>
-      <c r="E151" t="s">
-        <v>45</v>
-      </c>
-      <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B152" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/percy-allan-foundation-accommodation-scholarship", "Percy Allan Foundation Accommodation Scholarship")</f>
         <v>Percy Allan Foundation Accommodation Scholarship</v>
       </c>
       <c r="C152" t="s">
+        <v>357</v>
+      </c>
+      <c r="D152" t="s">
         <v>358</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E152" t="s">
-        <v>35</v>
-      </c>
-      <c r="F152" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B153" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/lainy-mcfarland-memorial-scholarship", "Lainy McFarland Memorial Scholarship")</f>
         <v>Lainy McFarland Memorial Scholarship</v>
       </c>
       <c r="C153" t="s">
+        <v>360</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" t="s">
-        <v>29</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B154" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/sarg-waerawi-scholarship", "SARG Waerawi Scholarship")</f>
         <v>SARG Waerawi Scholarship</v>
       </c>
       <c r="C154" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s">
-        <v>35</v>
-      </c>
-      <c r="F154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B155" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/western-primary-health-network-scholarship", "Western NSW Primary Health Network Scholarship")</f>
         <v>Western NSW Primary Health Network Scholarship</v>
       </c>
       <c r="C155" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" t="s">
         <v>365</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
+        <v>65</v>
+      </c>
+      <c r="F155" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E155" t="s">
-        <v>66</v>
-      </c>
-      <c r="F155" t="s">
-        <v>29</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B156" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/casella-wines-health-science-scholarship", "Casella Family Brands Health Scholarship")</f>
         <v>Casella Family Brands Health Scholarship</v>
       </c>
       <c r="C156" t="s">
+        <v>367</v>
+      </c>
+      <c r="D156" t="s">
+        <v>89</v>
+      </c>
+      <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D156" t="s">
-        <v>90</v>
-      </c>
-      <c r="E156" t="s">
-        <v>35</v>
-      </c>
-      <c r="F156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B157" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/aurora-dairies-scholarship", "Aurora Dairies Scholarship")</f>
         <v>Aurora Dairies Scholarship</v>
       </c>
       <c r="C157" t="s">
+        <v>369</v>
+      </c>
+      <c r="D157" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
+        <v>28</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D157" t="s">
-        <v>69</v>
-      </c>
-      <c r="E157" t="s">
-        <v>35</v>
-      </c>
-      <c r="F157" t="s">
-        <v>29</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B158" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/dr-judith-van-der-wal-award", "Dr Judith van der Wal Award")</f>
         <v>Dr Judith van der Wal Award</v>
       </c>
       <c r="C158" t="s">
+        <v>371</v>
+      </c>
+      <c r="D158" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D158" t="s">
-        <v>145</v>
-      </c>
-      <c r="E158" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B159" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/western-sydney-schools-agriculture-scholarship", "Western Sydney Schools Agriculture Scholarship")</f>
         <v>Western Sydney Schools Agriculture Scholarship</v>
       </c>
       <c r="C159" t="s">
+        <v>373</v>
+      </c>
+      <c r="D159" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" t="s">
+        <v>65</v>
+      </c>
+      <c r="F159" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D159" t="s">
-        <v>41</v>
-      </c>
-      <c r="E159" t="s">
-        <v>66</v>
-      </c>
-      <c r="F159" t="s">
-        <v>29</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B160" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/gita-belin-fortitude-foundation-rural-doctors-scholarship", "Gita Belin Fortitude Foundation Rural Doctors Scholarship")</f>
         <v>Gita Belin Fortitude Foundation Rural Doctors Scholarship</v>
       </c>
       <c r="C160" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" t="s">
         <v>376</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
+        <v>44</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E160" t="s">
-        <v>45</v>
-      </c>
-      <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B161" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/legacy-of-bob-and-pam-knight-of-noorat-scholarship", "Legacy of Bob and Pam Knight from Noorat Scholarship")</f>
         <v>Legacy of Bob and Pam Knight from Noorat Scholarship</v>
       </c>
       <c r="C161" t="s">
+        <v>378</v>
+      </c>
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D161" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" t="s">
-        <v>29</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B162" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/cerebral-palsy-alliance-allied-health-scholarship", "Cerebral Palsy Alliance Allied Health Scholarship")</f>
         <v>Cerebral Palsy Alliance Allied Health Scholarship</v>
       </c>
       <c r="C162" t="s">
+        <v>380</v>
+      </c>
+      <c r="D162" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D162" t="s">
-        <v>99</v>
-      </c>
-      <c r="E162" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B163" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/emma-accolade-scholarship", "EMMA Accolade Scholarship ")</f>
         <v xml:space="preserve">EMMA Accolade Scholarship </v>
       </c>
       <c r="C163" t="s">
+        <v>382</v>
+      </c>
+      <c r="D163" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D163" t="s">
-        <v>99</v>
-      </c>
-      <c r="E163" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="H163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B164" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/st-martins-college-accommodation-scholarship", "St Martins College Accommodation Scholarship")</f>
         <v>St Martins College Accommodation Scholarship</v>
       </c>
       <c r="C164" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="H164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B165" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/rennylea-future-in-livestock-scholarship/vetprac-workshops-scholarship", "VetPrac Workshops Scholarship")</f>
         <v>VetPrac Workshops Scholarship</v>
       </c>
       <c r="C165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B166" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/three-rivers-drh-aged-care-continuing-student-scholarship", "Three Rivers DRH Aged Care  Continuing Student Scholarship")</f>
         <v>Three Rivers DRH Aged Care  Continuing Student Scholarship</v>
       </c>
       <c r="C166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B167" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/wagga-agricultural-college-old-boys-union-wacobu-scholarship", "Wagga Agricultural College Old Boys' Union (WACOBU) Scholarship ")</f>
         <v xml:space="preserve">Wagga Agricultural College Old Boys' Union (WACOBU) Scholarship </v>
       </c>
       <c r="C167" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" t="s">
+        <v>86</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D167" t="s">
-        <v>87</v>
-      </c>
-      <c r="E167" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B168" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/accom/colgate-accommodation-scholarship", "Colgate Accommodation Scholarship")</f>
         <v>Colgate Accommodation Scholarship</v>
       </c>
       <c r="C168" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D168" t="s">
-        <v>41</v>
-      </c>
-      <c r="E168" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B169" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rowe-scientific-chemistry-scholarship", "Rowe Scientific Chemistry Scholarship")</f>
         <v>Rowe Scientific Chemistry Scholarship</v>
       </c>
       <c r="C169" t="s">
+        <v>392</v>
+      </c>
+      <c r="D169" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D169" t="s">
-        <v>51</v>
-      </c>
-      <c r="E169" t="s">
-        <v>35</v>
-      </c>
-      <c r="F169" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="H169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B170" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/rennylea-future-in-livestock-scholarship", "Rennylea - The Future in Livestock Scholarship")</f>
         <v>Rennylea - The Future in Livestock Scholarship</v>
       </c>
       <c r="C170" t="s">
+        <v>394</v>
+      </c>
+      <c r="D170" t="s">
         <v>395</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" t="s">
+        <v>222</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E170" t="s">
-        <v>35</v>
-      </c>
-      <c r="F170" t="s">
-        <v>223</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="H170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B171" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/valerie-cox-memorial-scholarship-continuing", "Valerie Cox Memorial Scholarship - Continuing")</f>
         <v>Valerie Cox Memorial Scholarship - Continuing</v>
       </c>
       <c r="C171" t="s">
+        <v>397</v>
+      </c>
+      <c r="D171" t="s">
+        <v>40</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D171" t="s">
-        <v>41</v>
-      </c>
-      <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" t="s">
-        <v>29</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="H171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B172" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/equity/three-rivers-department-of-rural-health-honours-scholarship", "Three Rivers Department of Rural Health Honours Scholarship")</f>
         <v>Three Rivers Department of Rural Health Honours Scholarship</v>
       </c>
       <c r="C172" t="s">
+        <v>399</v>
+      </c>
+      <c r="D172" t="s">
         <v>400</v>
       </c>
-      <c r="D172" t="s">
-        <v>401</v>
-      </c>
       <c r="E172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B173" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/chris-and-gina-grubb-scholarship", "Chris and Gina Grubb Ornithology Scholarship")</f>
         <v>Chris and Gina Grubb Ornithology Scholarship</v>
       </c>
       <c r="C173" t="s">
+        <v>401</v>
+      </c>
+      <c r="D173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173" t="s">
+        <v>65</v>
+      </c>
+      <c r="F173" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D173" t="s">
-        <v>41</v>
-      </c>
-      <c r="E173" t="s">
-        <v>66</v>
-      </c>
-      <c r="F173" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="H173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B174" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/The-Roberton-Scholarship", "The Roberton Scholarship")</f>
         <v>The Roberton Scholarship</v>
       </c>
       <c r="C174" t="s">
+        <v>403</v>
+      </c>
+      <c r="D174" t="s">
         <v>404</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E174" t="s">
-        <v>35</v>
-      </c>
-      <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B175" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/calvary-health-care-riverina-scholarship", "Calvary Health Care Riverina Scholarship")</f>
         <v>Calvary Health Care Riverina Scholarship</v>
       </c>
       <c r="C175" t="s">
+        <v>406</v>
+      </c>
+      <c r="D175" t="s">
+        <v>86</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D175" t="s">
-        <v>87</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" t="s">
-        <v>29</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B176" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/csu-pharmacy-foundation-scholarship", "CSU Pharmacy Foundation Scholarship")</f>
         <v>CSU Pharmacy Foundation Scholarship</v>
       </c>
       <c r="C176" t="s">
+        <v>408</v>
+      </c>
+      <c r="D176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D176" t="s">
-        <v>41</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B177" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/geoff-quick-paramedicine-scholarship", "Geoff Quick Paramedicine Scholarship")</f>
         <v>Geoff Quick Paramedicine Scholarship</v>
       </c>
       <c r="C177" t="s">
+        <v>410</v>
+      </c>
+      <c r="D177" t="s">
+        <v>40</v>
+      </c>
+      <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D177" t="s">
-        <v>41</v>
-      </c>
-      <c r="E177" t="s">
-        <v>35</v>
-      </c>
-      <c r="F177" t="s">
-        <v>29</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B178" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/rotary-club-of-wollundry-scholarship-wagga-wagga", "Rotary Club of Wollundry Scholarship, Wagga Wagga ")</f>
         <v xml:space="preserve">Rotary Club of Wollundry Scholarship, Wagga Wagga </v>
       </c>
       <c r="C178" t="s">
+        <v>412</v>
+      </c>
+      <c r="D178" t="s">
+        <v>326</v>
+      </c>
+      <c r="E178" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D178" t="s">
-        <v>327</v>
-      </c>
-      <c r="E178" t="s">
-        <v>35</v>
-      </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="H178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B179" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/rotary-club-of-liverpool-west-nursing-scholarship", "Rotary Club of Liverpool West Nursing Scholarship")</f>
         <v>Rotary Club of Liverpool West Nursing Scholarship</v>
       </c>
       <c r="C179" t="s">
+        <v>414</v>
+      </c>
+      <c r="D179" t="s">
+        <v>248</v>
+      </c>
+      <c r="E179" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D179" t="s">
-        <v>249</v>
-      </c>
-      <c r="E179" t="s">
-        <v>35</v>
-      </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="H179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B180" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/vp-bragg-bequest-trust-fund-scholarship", "VP Bragg Bequest Trust Fund Scholarship")</f>
         <v>VP Bragg Bequest Trust Fund Scholarship</v>
       </c>
       <c r="C180" t="s">
+        <v>416</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D180" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" t="s">
-        <v>29</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B181" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/central-west-medical-association-medical-student-scholarship", "Central West Medical Association Medical Student Scholarship")</f>
         <v>Central West Medical Association Medical Student Scholarship</v>
       </c>
       <c r="C181" t="s">
+        <v>418</v>
+      </c>
+      <c r="D181" t="s">
         <v>419</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E181" t="s">
-        <v>35</v>
-      </c>
-      <c r="F181" t="s">
-        <v>23</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B182" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/any-year/widgiewa-school-scholarship", "Widgiewa School Scholarship ")</f>
         <v xml:space="preserve">Widgiewa School Scholarship </v>
       </c>
       <c r="C182" t="s">
+        <v>421</v>
+      </c>
+      <c r="D182" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D182" t="s">
-        <v>41</v>
-      </c>
-      <c r="E182" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" t="s">
-        <v>29</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B183" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/the-james-mcinerney-memorial-scholarship", "The James McInerney Memorial Scholarship")</f>
         <v>The James McInerney Memorial Scholarship</v>
       </c>
       <c r="C183" t="s">
+        <v>423</v>
+      </c>
+      <c r="D183" t="s">
         <v>424</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E183" t="s">
-        <v>35</v>
-      </c>
-      <c r="F183" t="s">
-        <v>29</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="H183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B184" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/fc-pye-rural-australia-foundation", "FC Pye Rural Australia Foundation")</f>
         <v>FC Pye Rural Australia Foundation</v>
       </c>
       <c r="C184" t="s">
+        <v>426</v>
+      </c>
+      <c r="D184" t="s">
+        <v>86</v>
+      </c>
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D184" t="s">
-        <v>87</v>
-      </c>
-      <c r="E184" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="H184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B185" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/matron-hertzog-scholarship", "Matron Herzog Scholarship")</f>
         <v>Matron Herzog Scholarship</v>
       </c>
       <c r="C185" t="s">
+        <v>428</v>
+      </c>
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" t="s">
+        <v>65</v>
+      </c>
+      <c r="F185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D185" t="s">
-        <v>59</v>
-      </c>
-      <c r="E185" t="s">
-        <v>66</v>
-      </c>
-      <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="H185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B186" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/tarcutta-and-wantabadgery-merino-breeders-association-scholarship", "Tarcutta and Wantabadgery Merino Breeders Association Scholarship ")</f>
         <v xml:space="preserve">Tarcutta and Wantabadgery Merino Breeders Association Scholarship </v>
       </c>
       <c r="C186" t="s">
+        <v>430</v>
+      </c>
+      <c r="D186" t="s">
+        <v>144</v>
+      </c>
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D186" t="s">
-        <v>145</v>
-      </c>
-      <c r="E186" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" t="s">
-        <v>29</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="H186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B187" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/1st-year/ron-and-stephanie-camplin-oam-nursing-scholarship", "Ron and Stephanie Camplin OAM Nursing Scholarship")</f>
         <v>Ron and Stephanie Camplin OAM Nursing Scholarship</v>
       </c>
       <c r="C187" t="s">
+        <v>432</v>
+      </c>
+      <c r="D187" t="s">
+        <v>326</v>
+      </c>
+      <c r="E187" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D187" t="s">
-        <v>327</v>
-      </c>
-      <c r="E187" t="s">
-        <v>35</v>
-      </c>
-      <c r="F187" t="s">
-        <v>29</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="H187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B188" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/j-h-chalmers-memorial-veterinary-science-scholarship", "J H Chalmers Memorial Veterinary Science Scholarship ")</f>
         <v xml:space="preserve">J H Chalmers Memorial Veterinary Science Scholarship </v>
       </c>
       <c r="C188" t="s">
+        <v>434</v>
+      </c>
+      <c r="D188" t="s">
+        <v>86</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D188" t="s">
-        <v>87</v>
-      </c>
-      <c r="E188" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" t="s">
-        <v>29</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B189" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/a-and-k-gestier-veterinary-scholarship2", "A&amp;K Gestier Veterinary Scholarship")</f>
         <v>A&amp;K Gestier Veterinary Scholarship</v>
       </c>
       <c r="C189" t="s">
+        <v>436</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s">
+        <v>28</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D189" t="s">
-        <v>11</v>
-      </c>
-      <c r="E189" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" t="s">
-        <v>29</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="H189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B190" t="str">
         <f>HYPERLINK("https://www.csu.edu.au/scholarships/scholarships-grants/find-scholarship/foundation/continuing/the-ak-and-ia-sutherland-scholarship", "The AK &amp; IA Sutherland Scholarship")</f>
         <v>The AK &amp; IA Sutherland Scholarship</v>
       </c>
       <c r="C190" t="s">
+        <v>438</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
-      <c r="E190" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" t="s">
-        <v>29</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
